--- a/project/tomo/excel/oscem_schemas_tomo.xlsx
+++ b/project/tomo/excel/oscem_schemas_tomo.xlsx
@@ -33,8 +33,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetBase" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1475,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,31 +1559,218 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1534,285 +1787,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,42 +1823,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>phaseplate</t>
         </is>
       </c>

--- a/project/tomo/excel/oscem_schemas_tomo.xlsx
+++ b/project/tomo/excel/oscem_schemas_tomo.xlsx
@@ -761,7 +761,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Antibiotic,Carbohydrate,Chimera,None of these"</formula1>
+      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/tomo/excel/oscem_schemas_tomo.xlsx
+++ b/project/tomo/excel/oscem_schemas_tomo.xlsx
@@ -663,7 +663,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>molecular_type</t>
+          <t>molecular_overall_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -688,7 +688,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
+    </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"FILAMENT,HELICAL ARRAY,PARTICLE"</formula1>
     </dataValidation>
@@ -759,11 +762,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CELL,COMPLEX,ORGANELLE OR CELLULAR COMPONENT,RIBOSOME,TISSUE,VIRUS"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/tomo/excel/oscem_schemas_tomo.xlsx
+++ b/project/tomo/excel/oscem_schemas_tomo.xlsx
@@ -13,27 +13,28 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +458,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chromatic_aberration_corrector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -482,7 +519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -513,7 +550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -544,7 +581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -600,7 +637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,7 +683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -700,7 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -766,7 +803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -802,7 +839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -873,7 +910,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -949,27 +1017,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -980,7 +1053,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,264 +1236,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>work_status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_defocus</t>
+          <t>email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>work_phone</t>
         </is>
       </c>
@@ -1264,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1391,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,6 +1655,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1768,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1802,40 +1870,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spherical_aberration_corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>chromatic_aberration_corrector</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>